--- a/src/R/Modals/qarm_lang.xlsx
+++ b/src/R/Modals/qarm_lang.xlsx
@@ -372,7 +372,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>qa_report_result_title</t>
+          <t>qa_report_result_correct</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -384,7 +384,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>qa_report_result_incorrect</t>
+          <t>qa_report_result_title</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>qa_report_result_msg</t>
+          <t>qa_report_correct</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qa_report_incorrect</t>
+          <t>qa_report_result_msg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
